--- a/backend/temp_results.xlsx
+++ b/backend/temp_results.xlsx
@@ -6614,19 +6614,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7857142857142857</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E2">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F2">
-        <v>0.9285714285714285</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G2">
-        <v>0.8759398496240601</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6637,19 +6637,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.3333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F3">
-        <v>0.7777777777777778</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G3">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6660,19 +6660,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.88</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E4">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F4">
-        <v>0.7933333333333333</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G4">
-        <v>0.8121052631578948</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6680,16 +6680,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0.8421052631578947</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6739,19 +6739,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E2">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F2">
-        <v>0.9166666666666666</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G2">
-        <v>0.9407894736842105</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6762,19 +6762,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8636363636363636</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F3">
-        <v>0.9545454545454546</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6785,19 +6785,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9268292682926829</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
-        <v>0.8571428571428571</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E4">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F4">
-        <v>0.9279907084785134</v>
+        <v>0.9474747474747475</v>
       </c>
       <c r="G4">
-        <v>0.9238034109664405</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6805,16 +6805,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6867,16 +6867,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E2">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F2">
-        <v>0.9166666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="G2">
-        <v>0.9407894736842105</v>
+        <v>0.975877192982456</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6887,19 +6887,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8636363636363636</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F3">
-        <v>0.9545454545454546</v>
+        <v>0.9777777777777779</v>
       </c>
       <c r="G3">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6910,19 +6910,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9268292682926829</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="D4">
-        <v>0.8571428571428571</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F4">
-        <v>0.9279907084785134</v>
+        <v>0.9740129935032483</v>
       </c>
       <c r="G4">
-        <v>0.9238034109664405</v>
+        <v>0.9738025723980116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6930,16 +6930,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6989,19 +6989,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="E2">
-        <v>0.9736842105263158</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="F2">
-        <v>0.9666666666666667</v>
+        <v>0.4743589743589744</v>
       </c>
       <c r="G2">
-        <v>0.9763157894736842</v>
+        <v>0.4382591093117409</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7012,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9545454545454546</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9736842105263158</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="F3">
-        <v>0.9848484848484849</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9736842105263158</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7035,19 +7035,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9767441860465117</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9473684210526316</v>
+        <v>0.5945945945945945</v>
       </c>
       <c r="E4">
-        <v>0.9736842105263158</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="F4">
-        <v>0.9747042023663811</v>
+        <v>0.5315315315315315</v>
       </c>
       <c r="G4">
-        <v>0.9740707337499196</v>
+        <v>0.4879089615931721</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,16 +7055,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>0.9736842105263158</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="F5">
         <v>38</v>

--- a/backend/temp_results.xlsx
+++ b/backend/temp_results.xlsx
@@ -6611,22 +6611,22 @@
         <v>12</v>
       </c>
       <c r="B2">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.9333333333333333</v>
-      </c>
       <c r="D2">
-        <v>0.9090909090909091</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F2">
-        <v>0.9474747474747475</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9473684210526315</v>
+        <v>0.9092105263157894</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6637,19 +6637,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F3">
-        <v>0.9474747474747475</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G3">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6657,22 +6657,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="C4">
-        <v>0.9333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.9090909090909091</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="E4">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F4">
-        <v>0.9474747474747475</v>
+        <v>0.8887624466571835</v>
       </c>
       <c r="G4">
-        <v>0.9473684210526315</v>
+        <v>0.8881036160814555</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6680,16 +6680,16 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0.9473684210526315</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6739,19 +6739,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E2">
         <v>0.9473684210526315</v>
       </c>
       <c r="F2">
-        <v>0.9474747474747475</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G2">
-        <v>0.9473684210526315</v>
+        <v>0.9529085872576177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6762,16 +6762,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0.9473684210526315</v>
       </c>
       <c r="F3">
-        <v>0.9474747474747475</v>
+        <v>0.9444444444444445</v>
       </c>
       <c r="G3">
         <v>0.9473684210526315</v>
@@ -6785,19 +6785,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D4">
-        <v>0.9090909090909091</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E4">
         <v>0.9473684210526315</v>
       </c>
       <c r="F4">
-        <v>0.9474747474747475</v>
+        <v>0.9511784511784512</v>
       </c>
       <c r="G4">
-        <v>0.9473684210526315</v>
+        <v>0.9464380648591174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6805,13 +6805,13 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0.9473684210526315</v>
@@ -6867,16 +6867,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E2">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F2">
-        <v>0.9722222222222222</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G2">
-        <v>0.975877192982456</v>
+        <v>0.9529085872576177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6887,19 +6887,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F3">
-        <v>0.9777777777777779</v>
+        <v>0.9444444444444445</v>
       </c>
       <c r="G3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6910,19 +6910,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9655172413793104</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D4">
-        <v>0.9565217391304348</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E4">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F4">
-        <v>0.9740129935032483</v>
+        <v>0.9511784511784512</v>
       </c>
       <c r="G4">
-        <v>0.9738025723980116</v>
+        <v>0.9464380648591174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6930,16 +6930,16 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6989,19 +6989,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.4230769230769231</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.6052631578947368</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F2">
-        <v>0.4743589743589744</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G2">
-        <v>0.4382591093117409</v>
+        <v>0.9328947368421053</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7012,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.6052631578947368</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6052631578947368</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7035,19 +7035,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.5945945945945945</v>
+        <v>0.9189189189189189</v>
       </c>
       <c r="E4">
-        <v>0.6052631578947368</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F4">
-        <v>0.5315315315315315</v>
+        <v>0.9253539253539254</v>
       </c>
       <c r="G4">
-        <v>0.4879089615931721</v>
+        <v>0.9186141028246291</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,16 +7055,16 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
       <c r="D5">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0.6052631578947368</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F5">
         <v>38</v>

--- a/backend/temp_results.xlsx
+++ b/backend/temp_results.xlsx
@@ -6611,22 +6611,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E2">
-        <v>0.8947368421052632</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="F2">
-        <v>0.9166666666666666</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G2">
-        <v>0.9092105263157894</v>
+        <v>0.8606811145510835</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6637,19 +6637,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.8947368421052632</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="F3">
-        <v>0.8888888888888888</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="G3">
-        <v>0.8947368421052632</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6657,22 +6657,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526316</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D4">
-        <v>0.9189189189189189</v>
+        <v>0.9375</v>
       </c>
       <c r="E4">
-        <v>0.8947368421052632</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="F4">
-        <v>0.8887624466571835</v>
+        <v>0.7661398467432949</v>
       </c>
       <c r="G4">
-        <v>0.8881036160814555</v>
+        <v>0.7857947670901391</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6680,16 +6680,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.8947368421052632</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6742,16 +6742,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.8947368421052632</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E2">
         <v>0.9473684210526315</v>
       </c>
       <c r="F2">
-        <v>0.9649122807017544</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="G2">
-        <v>0.9529085872576177</v>
+        <v>0.9535603715170279</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6762,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6771,7 +6771,7 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="F3">
-        <v>0.9444444444444445</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="G3">
         <v>0.9473684210526315</v>
@@ -6785,19 +6785,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="E4">
         <v>0.9473684210526315</v>
       </c>
       <c r="F4">
-        <v>0.9511784511784512</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9464380648591174</v>
+        <v>0.9463815789473684</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6805,13 +6805,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0.9473684210526315</v>
@@ -6867,16 +6867,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.8947368421052632</v>
+        <v>0.9375</v>
       </c>
       <c r="E2">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F2">
-        <v>0.9649122807017544</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9529085872576177</v>
+        <v>0.975328947368421</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6887,19 +6887,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F3">
-        <v>0.9444444444444445</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G3">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6910,19 +6910,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9090909090909091</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D4">
-        <v>0.9444444444444444</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E4">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F4">
-        <v>0.9511784511784512</v>
+        <v>0.9733742959549412</v>
       </c>
       <c r="G4">
-        <v>0.9464380648591174</v>
+        <v>0.9734820923275931</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6930,16 +6930,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6992,16 +6992,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.9375</v>
       </c>
       <c r="E2">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F2">
-        <v>0.9500000000000001</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9328947368421053</v>
+        <v>0.975328947368421</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7012,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F3">
-        <v>0.9166666666666666</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G3">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7035,19 +7035,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D4">
-        <v>0.9189189189189189</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E4">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F4">
-        <v>0.9253539253539254</v>
+        <v>0.9733742959549412</v>
       </c>
       <c r="G4">
-        <v>0.9186141028246291</v>
+        <v>0.9734820923275931</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,16 +7055,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.9210526315789473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F5">
         <v>38</v>

--- a/backend/temp_results.xlsx
+++ b/backend/temp_results.xlsx
@@ -6611,22 +6611,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7058823529411765</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C2">
+        <v>0.625</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.8823529411764706</v>
-      </c>
       <c r="E2">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F2">
-        <v>0.8627450980392157</v>
+        <v>0.7283333333333334</v>
       </c>
       <c r="G2">
-        <v>0.8606811145510835</v>
+        <v>0.7293421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6637,19 +6637,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E3">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F3">
-        <v>0.787878787878788</v>
+        <v>0.6130536130536131</v>
       </c>
       <c r="G3">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6657,22 +6657,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C4">
-        <v>0.5333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D4">
-        <v>0.9375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E4">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F4">
-        <v>0.7661398467432949</v>
+        <v>0.5999400209926525</v>
       </c>
       <c r="G4">
-        <v>0.7857947670901391</v>
+        <v>0.6069204725714421</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6680,16 +6680,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>0.8157894736842105</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6742,16 +6742,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9607843137254902</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9535603715170279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6762,19 +6762,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6785,19 +6785,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9458333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9463815789473684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6805,16 +6805,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6867,16 +6867,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9375</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2">
         <v>0.9736842105263158</v>
       </c>
       <c r="F2">
-        <v>0.9791666666666666</v>
+        <v>0.9761904761904763</v>
       </c>
       <c r="G2">
-        <v>0.975328947368421</v>
+        <v>0.9755639097744361</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6913,16 +6913,16 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="D4">
-        <v>0.967741935483871</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E4">
         <v>0.9736842105263158</v>
       </c>
       <c r="F4">
-        <v>0.9733742959549412</v>
+        <v>0.9717813051146384</v>
       </c>
       <c r="G4">
-        <v>0.9734820923275931</v>
+        <v>0.9735449735449735</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6930,13 +6930,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.9736842105263158</v>
@@ -6992,16 +6992,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.975328947368421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7012,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7035,19 +7035,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.9733742959549412</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9734820923275931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,16 +7055,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>38</v>

--- a/backend/temp_results.xlsx
+++ b/backend/temp_results.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="16">
   <si>
-    <t>sepal.length</t>
+    <t>sepal.width</t>
   </si>
   <si>
     <t>petal.length</t>
@@ -34,7 +34,7 @@
     <t>variety</t>
   </si>
   <si>
-    <t>sepal.width</t>
+    <t>sepal.length</t>
   </si>
   <si>
     <t>Setosa</t>
@@ -138,6 +138,178 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="sgd.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="9144018" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="svc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="9144018" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="mlp.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="9144018" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="gpc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="9144018" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="C2">
         <v>1.4</v>
@@ -465,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1.4</v>
@@ -485,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="C4">
         <v>1.3</v>
@@ -505,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -525,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="C6">
         <v>1.4</v>
@@ -545,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -553,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="C7">
         <v>1.7</v>
@@ -565,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -573,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="C8">
         <v>1.4</v>
@@ -585,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -593,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -605,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>3.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -613,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="C10">
         <v>1.4</v>
@@ -625,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -633,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="C11">
         <v>1.5</v>
@@ -645,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -653,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="C12">
         <v>1.5</v>
@@ -665,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -673,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C13">
         <v>1.6</v>
@@ -685,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -693,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1.4</v>
@@ -705,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -713,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1.1</v>
@@ -725,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -733,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1.2</v>
@@ -745,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -753,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -765,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -773,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="C18">
         <v>1.3</v>
@@ -785,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -793,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="C19">
         <v>1.4</v>
@@ -805,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -813,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="C20">
         <v>1.7</v>
@@ -825,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -833,7 +1005,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -845,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -853,7 +1025,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="C22">
         <v>1.7</v>
@@ -865,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -873,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="C23">
         <v>1.5</v>
@@ -885,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -893,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -905,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -913,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="C25">
         <v>1.7</v>
@@ -925,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -933,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="C26">
         <v>1.9</v>
@@ -945,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -953,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1.6</v>
@@ -965,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -973,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="C28">
         <v>1.6</v>
@@ -985,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>3.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -993,7 +1165,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="C29">
         <v>1.5</v>
@@ -1005,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="F29">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1013,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="C30">
         <v>1.4</v>
@@ -1025,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1033,7 +1205,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="C31">
         <v>1.6</v>
@@ -1045,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1053,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="C32">
         <v>1.6</v>
@@ -1065,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="F32">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1073,7 +1245,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="C33">
         <v>1.5</v>
@@ -1085,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1093,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="C34">
         <v>1.5</v>
@@ -1105,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1113,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="C35">
         <v>1.4</v>
@@ -1125,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1133,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="C36">
         <v>1.5</v>
@@ -1145,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="F36">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1153,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="C37">
         <v>1.2</v>
@@ -1165,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>3.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1173,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="C38">
         <v>1.3</v>
@@ -1185,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1193,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="C39">
         <v>1.4</v>
@@ -1205,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="F39">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1213,7 +1385,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>1.3</v>
@@ -1225,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1233,7 +1405,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="C41">
         <v>1.5</v>
@@ -1245,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="F41">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1253,7 +1425,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C42">
         <v>1.3</v>
@@ -1265,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1273,7 +1445,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="C43">
         <v>1.3</v>
@@ -1285,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1293,7 +1465,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="C44">
         <v>1.3</v>
@@ -1305,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="F44">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1313,7 +1485,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="C45">
         <v>1.6</v>
@@ -1325,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="F45">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1333,7 +1505,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C46">
         <v>1.9</v>
@@ -1345,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1353,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>1.4</v>
@@ -1365,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1373,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="C48">
         <v>1.6</v>
@@ -1385,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1393,7 +1565,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="C49">
         <v>1.4</v>
@@ -1405,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1413,7 +1585,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="C50">
         <v>1.5</v>
@@ -1425,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="F50">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1433,7 +1605,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="C51">
         <v>1.4</v>
@@ -1445,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="F51">
-        <v>3.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1453,7 +1625,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="C52">
         <v>4.7</v>
@@ -1465,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="F52">
-        <v>3.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1473,7 +1645,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="C53">
         <v>4.5</v>
@@ -1485,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="F53">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1493,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C54">
         <v>4.9</v>
@@ -1505,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1513,7 +1685,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1525,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1533,7 +1705,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="C56">
         <v>4.6</v>
@@ -1545,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="F56">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1553,7 +1725,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="C57">
         <v>4.5</v>
@@ -1565,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="F57">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1573,7 +1745,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="C58">
         <v>4.7</v>
@@ -1585,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1593,7 +1765,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="C59">
         <v>3.3</v>
@@ -1605,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="F59">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1613,7 +1785,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="C60">
         <v>4.6</v>
@@ -1625,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="F60">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1633,7 +1805,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="C61">
         <v>3.9</v>
@@ -1645,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1653,7 +1825,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>3.5</v>
@@ -1665,7 +1837,7 @@
         <v>6</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1673,7 +1845,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>4.2</v>
@@ -1685,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1693,7 +1865,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1705,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>2.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1713,7 +1885,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="C65">
         <v>4.7</v>
@@ -1725,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="F65">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1733,7 +1905,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="C66">
         <v>3.6</v>
@@ -1745,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="F66">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1753,7 +1925,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C67">
         <v>4.4</v>
@@ -1765,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="F67">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1773,7 +1945,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>4.5</v>
@@ -1785,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1793,7 +1965,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C69">
         <v>4.1</v>
@@ -1805,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="F69">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1813,7 +1985,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="C70">
         <v>4.5</v>
@@ -1825,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="F70">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1833,7 +2005,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="C71">
         <v>3.9</v>
@@ -1845,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1853,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="C72">
         <v>4.8</v>
@@ -1865,7 +2037,7 @@
         <v>6</v>
       </c>
       <c r="F72">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1873,7 +2045,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1885,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="F73">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1893,7 +2065,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="C74">
         <v>4.9</v>
@@ -1905,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="F74">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1913,7 +2085,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="C75">
         <v>4.7</v>
@@ -1925,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="F75">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1933,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="C76">
         <v>4.3</v>
@@ -1945,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="F76">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1953,7 +2125,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>4.4</v>
@@ -1965,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1973,7 +2145,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="C78">
         <v>4.8</v>
@@ -1985,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1993,7 +2165,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2005,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2013,7 +2185,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="C80">
         <v>4.5</v>
@@ -2025,7 +2197,7 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>2.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2033,7 +2205,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="C81">
         <v>3.5</v>
@@ -2045,7 +2217,7 @@
         <v>6</v>
       </c>
       <c r="F81">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2053,7 +2225,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="C82">
         <v>3.8</v>
@@ -2065,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2073,7 +2245,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="C83">
         <v>3.7</v>
@@ -2085,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="F83">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2093,7 +2265,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C84">
         <v>3.9</v>
@@ -2105,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="F84">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2113,7 +2285,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="C85">
         <v>5.1</v>
@@ -2125,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="F85">
-        <v>2.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2133,7 +2305,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>4.5</v>
@@ -2145,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2153,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="C87">
         <v>4.5</v>
@@ -2165,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="F87">
-        <v>3.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2173,7 +2345,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C88">
         <v>4.7</v>
@@ -2185,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="F88">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2193,7 +2365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="C89">
         <v>4.4</v>
@@ -2205,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="F89">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2213,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>4.1</v>
@@ -2225,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2233,7 +2405,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2245,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="F91">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2253,7 +2425,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="C92">
         <v>4.4</v>
@@ -2265,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="F92">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2273,7 +2445,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>4.6</v>
@@ -2285,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2293,7 +2465,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2305,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="F94">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2313,7 +2485,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="C95">
         <v>3.3</v>
@@ -2325,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="F95">
-        <v>2.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2333,7 +2505,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="C96">
         <v>4.2</v>
@@ -2345,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="F96">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2353,7 +2525,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>4.2</v>
@@ -2365,7 +2537,7 @@
         <v>6</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2373,7 +2545,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="C98">
         <v>4.2</v>
@@ -2385,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="F98">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2393,7 +2565,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="C99">
         <v>4.3</v>
@@ -2405,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="F99">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2413,7 +2585,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2425,7 +2597,7 @@
         <v>6</v>
       </c>
       <c r="F100">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2433,7 +2605,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="C101">
         <v>4.1</v>
@@ -2445,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="F101">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2453,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -2465,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="F102">
-        <v>3.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2473,7 +2645,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C103">
         <v>5.1</v>
@@ -2485,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="F103">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2493,7 +2665,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>5.9</v>
@@ -2505,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2513,7 +2685,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="C105">
         <v>5.6</v>
@@ -2525,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="F105">
-        <v>2.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2533,7 +2705,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>5.8</v>
@@ -2545,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2553,7 +2725,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>6.6</v>
@@ -2565,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2573,7 +2745,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="C108">
         <v>4.5</v>
@@ -2585,7 +2757,7 @@
         <v>7</v>
       </c>
       <c r="F108">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2593,7 +2765,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
       <c r="C109">
         <v>6.3</v>
@@ -2605,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="F109">
-        <v>2.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2613,7 +2785,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="C110">
         <v>5.8</v>
@@ -2625,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="F110">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2633,7 +2805,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="C111">
         <v>6.1</v>
@@ -2645,7 +2817,7 @@
         <v>7</v>
       </c>
       <c r="F111">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2653,7 +2825,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="C112">
         <v>5.1</v>
@@ -2665,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="F112">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2673,7 +2845,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="C113">
         <v>5.3</v>
@@ -2685,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="F113">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2693,7 +2865,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>5.5</v>
@@ -2705,7 +2877,7 @@
         <v>7</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2713,7 +2885,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -2725,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="F115">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2733,7 +2905,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="C116">
         <v>5.1</v>
@@ -2745,7 +2917,7 @@
         <v>7</v>
       </c>
       <c r="F116">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2753,7 +2925,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="C117">
         <v>5.3</v>
@@ -2765,7 +2937,7 @@
         <v>7</v>
       </c>
       <c r="F117">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2773,7 +2945,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C118">
         <v>5.5</v>
@@ -2785,7 +2957,7 @@
         <v>7</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2793,7 +2965,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="C119">
         <v>6.7</v>
@@ -2805,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="F119">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2813,7 +2985,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.7</v>
+        <v>2.6</v>
       </c>
       <c r="C120">
         <v>6.9</v>
@@ -2825,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="F120">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2833,7 +3005,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -2845,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="F121">
-        <v>2.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2853,7 +3025,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="C122">
         <v>5.7</v>
@@ -2865,7 +3037,7 @@
         <v>7</v>
       </c>
       <c r="F122">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2873,7 +3045,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="C123">
         <v>4.9</v>
@@ -2885,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="F123">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2893,7 +3065,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="C124">
         <v>6.7</v>
@@ -2905,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="F124">
-        <v>2.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2913,7 +3085,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.3</v>
+        <v>2.7</v>
       </c>
       <c r="C125">
         <v>4.9</v>
@@ -2925,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="F125">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2933,7 +3105,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="C126">
         <v>5.7</v>
@@ -2945,7 +3117,7 @@
         <v>7</v>
       </c>
       <c r="F126">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2953,7 +3125,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -2965,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="F127">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2973,7 +3145,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="C128">
         <v>4.8</v>
@@ -2985,7 +3157,7 @@
         <v>7</v>
       </c>
       <c r="F128">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2993,7 +3165,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>4.9</v>
@@ -3005,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3013,7 +3185,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="C130">
         <v>5.6</v>
@@ -3025,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="F130">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3033,7 +3205,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>5.8</v>
@@ -3045,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3053,7 +3225,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="C132">
         <v>6.1</v>
@@ -3065,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="F132">
-        <v>2.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3073,7 +3245,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="C133">
         <v>6.4</v>
@@ -3085,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="F133">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3093,7 +3265,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="C134">
         <v>5.6</v>
@@ -3105,7 +3277,7 @@
         <v>7</v>
       </c>
       <c r="F134">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3113,7 +3285,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="C135">
         <v>5.1</v>
@@ -3125,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="F135">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3133,7 +3305,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="C136">
         <v>5.6</v>
@@ -3145,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="F136">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3153,7 +3325,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>6.1</v>
@@ -3165,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3173,7 +3345,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="C138">
         <v>5.6</v>
@@ -3185,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="F138">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3193,7 +3365,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="C139">
         <v>5.5</v>
@@ -3205,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="F139">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3213,7 +3385,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140">
         <v>4.8</v>
@@ -3225,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="F140">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3233,7 +3405,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C141">
         <v>5.4</v>
@@ -3245,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="F141">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3253,7 +3425,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="C142">
         <v>5.6</v>
@@ -3265,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="F142">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3273,7 +3445,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6.9</v>
+        <v>3.1</v>
       </c>
       <c r="C143">
         <v>5.1</v>
@@ -3285,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="F143">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3293,7 +3465,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="C144">
         <v>5.1</v>
@@ -3305,7 +3477,7 @@
         <v>7</v>
       </c>
       <c r="F144">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3313,7 +3485,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6.8</v>
+        <v>3.2</v>
       </c>
       <c r="C145">
         <v>5.9</v>
@@ -3325,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="F145">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3333,7 +3505,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="C146">
         <v>5.7</v>
@@ -3345,7 +3517,7 @@
         <v>7</v>
       </c>
       <c r="F146">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3353,7 +3525,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6.7</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>5.2</v>
@@ -3365,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3373,7 +3545,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -3385,7 +3557,7 @@
         <v>7</v>
       </c>
       <c r="F148">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3393,7 +3565,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>5.2</v>
@@ -3405,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3413,7 +3585,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="C150">
         <v>5.4</v>
@@ -3425,7 +3597,7 @@
         <v>7</v>
       </c>
       <c r="F150">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3433,7 +3605,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>5.1</v>
@@ -3445,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.8976738791967661</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C2">
         <v>-1.33575163424152</v>
@@ -3492,7 +3664,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E2">
-        <v>1.015601990713633</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F2">
         <v>1.22065556157337</v>
@@ -3503,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.139200483464953</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C3">
         <v>-1.33575163424152</v>
@@ -3512,7 +3684,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E3">
-        <v>-0.1315388120502606</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F3">
         <v>1.22065556157337</v>
@@ -3523,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.380727087733141</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C4">
         <v>-1.392399286244977</v>
@@ -3532,7 +3704,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E4">
-        <v>0.3273175090552973</v>
+        <v>-1.380727087733141</v>
       </c>
       <c r="F4">
         <v>1.22065556157337</v>
@@ -3543,7 +3715,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.501490389867236</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C5">
         <v>-1.279103982238063</v>
@@ -3552,7 +3724,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E5">
-        <v>0.09788934850251833</v>
+        <v>-1.501490389867236</v>
       </c>
       <c r="F5">
         <v>1.22065556157337</v>
@@ -3563,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.01843718133086</v>
+        <v>1.245030151266412</v>
       </c>
       <c r="C6">
         <v>-1.33575163424152</v>
@@ -3572,7 +3744,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E6">
-        <v>1.245030151266412</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F6">
         <v>1.22065556157337</v>
@@ -3583,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.5353839727944832</v>
+        <v>1.933314632924748</v>
       </c>
       <c r="C7">
         <v>-1.165808678231149</v>
@@ -3592,7 +3764,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E7">
-        <v>1.933314632924748</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F7">
         <v>1.22065556157337</v>
@@ -3603,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.501490389867236</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C8">
         <v>-1.33575163424152</v>
@@ -3612,7 +3784,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E8">
-        <v>0.7861738301608542</v>
+        <v>-1.501490389867236</v>
       </c>
       <c r="F8">
         <v>1.22065556157337</v>
@@ -3623,7 +3795,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.01843718133086</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C9">
         <v>-1.279103982238063</v>
@@ -3632,7 +3804,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E9">
-        <v>0.7861738301608542</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F9">
         <v>1.22065556157337</v>
@@ -3643,7 +3815,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.743016994135423</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C10">
         <v>-1.33575163424152</v>
@@ -3652,7 +3824,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E10">
-        <v>-0.3609669726030396</v>
+        <v>-1.743016994135423</v>
       </c>
       <c r="F10">
         <v>1.22065556157337</v>
@@ -3663,7 +3835,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.139200483464953</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C11">
         <v>-1.279103982238063</v>
@@ -3672,7 +3844,7 @@
         <v>-1.442244824810047</v>
       </c>
       <c r="E11">
-        <v>0.09788934850251833</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F11">
         <v>1.22065556157337</v>
@@ -3683,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5353839727944832</v>
+        <v>1.474458311819191</v>
       </c>
       <c r="C12">
         <v>-1.279103982238063</v>
@@ -3692,7 +3864,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E12">
-        <v>1.474458311819191</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F12">
         <v>1.22065556157337</v>
@@ -3703,7 +3875,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.259963785599048</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C13">
         <v>-1.222456330234606</v>
@@ -3712,7 +3884,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E13">
-        <v>0.7861738301608542</v>
+        <v>-1.259963785599048</v>
       </c>
       <c r="F13">
         <v>1.22065556157337</v>
@@ -3723,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.259963785599048</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C14">
         <v>-1.33575163424152</v>
@@ -3732,7 +3904,7 @@
         <v>-1.442244824810047</v>
       </c>
       <c r="E14">
-        <v>-0.1315388120502606</v>
+        <v>-1.259963785599048</v>
       </c>
       <c r="F14">
         <v>1.22065556157337</v>
@@ -3743,7 +3915,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.863780296269518</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C15">
         <v>-1.505694590251892</v>
@@ -3752,7 +3924,7 @@
         <v>-1.442244824810047</v>
       </c>
       <c r="E15">
-        <v>-0.1315388120502606</v>
+        <v>-1.863780296269518</v>
       </c>
       <c r="F15">
         <v>1.22065556157337</v>
@@ -3763,7 +3935,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.05233076425810806</v>
+        <v>2.162742793477527</v>
       </c>
       <c r="C16">
         <v>-1.449046938248435</v>
@@ -3772,7 +3944,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E16">
-        <v>2.162742793477527</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F16">
         <v>1.22065556157337</v>
@@ -3783,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1730940663922016</v>
+        <v>3.080455435688643</v>
       </c>
       <c r="C17">
         <v>-1.279103982238063</v>
@@ -3792,7 +3964,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E17">
-        <v>3.080455435688643</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F17">
         <v>1.22065556157337</v>
@@ -3803,7 +3975,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.5353839727944832</v>
+        <v>1.933314632924748</v>
       </c>
       <c r="C18">
         <v>-1.392399286244977</v>
@@ -3812,7 +3984,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E18">
-        <v>1.933314632924748</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F18">
         <v>1.22065556157337</v>
@@ -3823,7 +3995,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.8976738791967661</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C19">
         <v>-1.33575163424152</v>
@@ -3832,7 +4004,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E19">
-        <v>1.015601990713633</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F19">
         <v>1.22065556157337</v>
@@ -3843,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1730940663922016</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C20">
         <v>-1.165808678231149</v>
@@ -3852,7 +4024,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E20">
-        <v>1.703886472371969</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F20">
         <v>1.22065556157337</v>
@@ -3863,7 +4035,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.8976738791967661</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C21">
         <v>-1.279103982238063</v>
@@ -3872,7 +4044,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E21">
-        <v>1.703886472371969</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F21">
         <v>1.22065556157337</v>
@@ -3883,7 +4055,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5353839727944832</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C22">
         <v>-1.165808678231149</v>
@@ -3892,7 +4064,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E22">
-        <v>0.7861738301608542</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F22">
         <v>1.22065556157337</v>
@@ -3903,7 +4075,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.8976738791967661</v>
+        <v>1.474458311819191</v>
       </c>
       <c r="C23">
         <v>-1.279103982238063</v>
@@ -3912,7 +4084,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E23">
-        <v>1.474458311819191</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F23">
         <v>1.22065556157337</v>
@@ -3923,7 +4095,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.501490389867236</v>
+        <v>1.245030151266412</v>
       </c>
       <c r="C24">
         <v>-1.562342242255349</v>
@@ -3932,7 +4104,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E24">
-        <v>1.245030151266412</v>
+        <v>-1.501490389867236</v>
       </c>
       <c r="F24">
         <v>1.22065556157337</v>
@@ -3943,7 +4115,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8976738791967661</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C25">
         <v>-1.165808678231149</v>
@@ -3952,7 +4124,7 @@
         <v>-0.9174741183903818</v>
       </c>
       <c r="E25">
-        <v>0.5567456696080751</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F25">
         <v>1.22065556157337</v>
@@ -3963,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.259963785599048</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C26">
         <v>-1.052513374224235</v>
@@ -3972,7 +4144,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E26">
-        <v>0.7861738301608542</v>
+        <v>-1.259963785599048</v>
       </c>
       <c r="F26">
         <v>1.22065556157337</v>
@@ -3983,7 +4155,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.01843718133086</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C27">
         <v>-1.222456330234606</v>
@@ -3992,7 +4164,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E27">
-        <v>-0.1315388120502606</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F27">
         <v>1.22065556157337</v>
@@ -4003,7 +4175,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.01843718133086</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C28">
         <v>-1.222456330234606</v>
@@ -4012,7 +4184,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E28">
-        <v>0.7861738301608542</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F28">
         <v>1.22065556157337</v>
@@ -4023,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.7769105770626714</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C29">
         <v>-1.279103982238063</v>
@@ -4032,7 +4204,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E29">
-        <v>1.015601990713633</v>
+        <v>-0.7769105770626714</v>
       </c>
       <c r="F29">
         <v>1.22065556157337</v>
@@ -4043,7 +4215,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.7769105770626714</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C30">
         <v>-1.33575163424152</v>
@@ -4052,7 +4224,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E30">
-        <v>0.7861738301608542</v>
+        <v>-0.7769105770626714</v>
       </c>
       <c r="F30">
         <v>1.22065556157337</v>
@@ -4063,7 +4235,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-1.380727087733141</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C31">
         <v>-1.222456330234606</v>
@@ -4072,7 +4244,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E31">
-        <v>0.3273175090552973</v>
+        <v>-1.380727087733141</v>
       </c>
       <c r="F31">
         <v>1.22065556157337</v>
@@ -4083,7 +4255,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.259963785599048</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C32">
         <v>-1.222456330234606</v>
@@ -4092,7 +4264,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E32">
-        <v>0.09788934850251833</v>
+        <v>-1.259963785599048</v>
       </c>
       <c r="F32">
         <v>1.22065556157337</v>
@@ -4103,7 +4275,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.5353839727944832</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C33">
         <v>-1.279103982238063</v>
@@ -4112,7 +4284,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E33">
-        <v>0.7861738301608542</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F33">
         <v>1.22065556157337</v>
@@ -4123,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.7769105770626714</v>
+        <v>2.392170954030305</v>
       </c>
       <c r="C34">
         <v>-1.279103982238063</v>
@@ -4132,7 +4304,7 @@
         <v>-1.442244824810047</v>
       </c>
       <c r="E34">
-        <v>2.392170954030305</v>
+        <v>-0.7769105770626714</v>
       </c>
       <c r="F34">
         <v>1.22065556157337</v>
@@ -4143,7 +4315,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.4146206706603898</v>
+        <v>2.621599114583085</v>
       </c>
       <c r="C35">
         <v>-1.33575163424152</v>
@@ -4152,7 +4324,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E35">
-        <v>2.621599114583085</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F35">
         <v>1.22065556157337</v>
@@ -4163,7 +4335,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.139200483464953</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C36">
         <v>-1.279103982238063</v>
@@ -4172,7 +4344,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E36">
-        <v>0.09788934850251833</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F36">
         <v>1.22065556157337</v>
@@ -4183,7 +4355,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.01843718133086</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C37">
         <v>-1.449046938248435</v>
@@ -4192,7 +4364,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E37">
-        <v>0.3273175090552973</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F37">
         <v>1.22065556157337</v>
@@ -4203,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.4146206706603898</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C38">
         <v>-1.392399286244977</v>
@@ -4212,7 +4384,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E38">
-        <v>1.015601990713633</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F38">
         <v>1.22065556157337</v>
@@ -4223,7 +4395,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.139200483464953</v>
+        <v>1.245030151266412</v>
       </c>
       <c r="C39">
         <v>-1.33575163424152</v>
@@ -4232,7 +4404,7 @@
         <v>-1.442244824810047</v>
       </c>
       <c r="E39">
-        <v>1.245030151266412</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F39">
         <v>1.22065556157337</v>
@@ -4243,7 +4415,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.743016994135423</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C40">
         <v>-1.392399286244977</v>
@@ -4252,7 +4424,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E40">
-        <v>-0.1315388120502606</v>
+        <v>-1.743016994135423</v>
       </c>
       <c r="F40">
         <v>1.22065556157337</v>
@@ -4263,7 +4435,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.8976738791967661</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C41">
         <v>-1.279103982238063</v>
@@ -4272,7 +4444,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E41">
-        <v>0.7861738301608542</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F41">
         <v>1.22065556157337</v>
@@ -4283,7 +4455,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.01843718133086</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C42">
         <v>-1.392399286244977</v>
@@ -4292,7 +4464,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E42">
-        <v>1.015601990713633</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F42">
         <v>1.22065556157337</v>
@@ -4303,7 +4475,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.62225369200133</v>
+        <v>-1.737535935919712</v>
       </c>
       <c r="C43">
         <v>-1.392399286244977</v>
@@ -4312,7 +4484,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E43">
-        <v>-1.737535935919712</v>
+        <v>-1.62225369200133</v>
       </c>
       <c r="F43">
         <v>1.22065556157337</v>
@@ -4323,7 +4495,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.743016994135423</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C44">
         <v>-1.392399286244977</v>
@@ -4332,7 +4504,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E44">
-        <v>0.3273175090552973</v>
+        <v>-1.743016994135423</v>
       </c>
       <c r="F44">
         <v>1.22065556157337</v>
@@ -4343,7 +4515,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.01843718133086</v>
+        <v>1.015601990713633</v>
       </c>
       <c r="C45">
         <v>-1.222456330234606</v>
@@ -4352,7 +4524,7 @@
         <v>-0.7862814417854654</v>
       </c>
       <c r="E45">
-        <v>1.015601990713633</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F45">
         <v>1.22065556157337</v>
@@ -4363,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.8976738791967661</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C46">
         <v>-1.052513374224235</v>
@@ -4372,7 +4544,7 @@
         <v>-1.048666794995298</v>
       </c>
       <c r="E46">
-        <v>1.703886472371969</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F46">
         <v>1.22065556157337</v>
@@ -4383,7 +4555,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.259963785599048</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C47">
         <v>-1.33575163424152</v>
@@ -4392,7 +4564,7 @@
         <v>-1.179859471600214</v>
       </c>
       <c r="E47">
-        <v>-0.1315388120502606</v>
+        <v>-1.259963785599048</v>
       </c>
       <c r="F47">
         <v>1.22065556157337</v>
@@ -4403,7 +4575,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.8976738791967661</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C48">
         <v>-1.222456330234606</v>
@@ -4412,7 +4584,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E48">
-        <v>1.703886472371969</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F48">
         <v>1.22065556157337</v>
@@ -4423,7 +4595,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.501490389867236</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C49">
         <v>-1.33575163424152</v>
@@ -4432,7 +4604,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E49">
-        <v>0.3273175090552973</v>
+        <v>-1.501490389867236</v>
       </c>
       <c r="F49">
         <v>1.22065556157337</v>
@@ -4443,7 +4615,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.6561472749285779</v>
+        <v>1.474458311819191</v>
       </c>
       <c r="C50">
         <v>-1.279103982238063</v>
@@ -4452,7 +4624,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E50">
-        <v>1.474458311819191</v>
+        <v>-0.6561472749285779</v>
       </c>
       <c r="F50">
         <v>1.22065556157337</v>
@@ -4463,7 +4635,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.01843718133086</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C51">
         <v>-1.33575163424152</v>
@@ -4472,7 +4644,7 @@
         <v>-1.311052148205131</v>
       </c>
       <c r="E51">
-        <v>0.5567456696080751</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F51">
         <v>1.22065556157337</v>
@@ -4483,7 +4655,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.39682886135102</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C52">
         <v>0.5336208818725664</v>
@@ -4492,7 +4664,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E52">
-        <v>0.3273175090552973</v>
+        <v>1.39682886135102</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4503,7 +4675,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6722490485464564</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C53">
         <v>0.4203255778656519</v>
@@ -4512,7 +4684,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E53">
-        <v>0.3273175090552973</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4523,7 +4695,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.276065559216926</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C54">
         <v>0.6469161858794809</v>
@@ -4532,7 +4704,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E54">
-        <v>0.09788934850251833</v>
+        <v>1.276065559216926</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4543,7 +4715,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.4146206706603898</v>
+        <v>-1.737535935919712</v>
       </c>
       <c r="C55">
         <v>0.1370873178483661</v>
@@ -4552,7 +4724,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E55">
-        <v>-1.737535935919712</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4563,7 +4735,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.79301235068055</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C56">
         <v>0.4769732298691089</v>
@@ -4572,7 +4744,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E56">
-        <v>-0.5903951331558185</v>
+        <v>0.79301235068055</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4583,7 +4755,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.1730940663922016</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C57">
         <v>0.4203255778656519</v>
@@ -4592,7 +4764,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E57">
-        <v>-0.5903951331558185</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4603,7 +4775,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5514857464123618</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C58">
         <v>0.5336208818725664</v>
@@ -4612,7 +4784,7 @@
         <v>0.5256453242636974</v>
       </c>
       <c r="E58">
-        <v>0.5567456696080751</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4623,7 +4795,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.139200483464953</v>
+        <v>-1.508107775366933</v>
       </c>
       <c r="C59">
         <v>-0.2594462461758342</v>
@@ -4632,7 +4804,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E59">
-        <v>-1.508107775366933</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4643,7 +4815,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9137756528146435</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C60">
         <v>0.4769732298691089</v>
@@ -4652,7 +4824,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E60">
-        <v>-0.3609669726030396</v>
+        <v>0.9137756528146435</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4663,7 +4835,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.7769105770626714</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C61">
         <v>0.08043966584490887</v>
@@ -4672,7 +4844,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E61">
-        <v>-0.8198232937085964</v>
+        <v>-0.7769105770626714</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4683,7 +4855,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.01843718133086</v>
+        <v>-2.425820417578048</v>
       </c>
       <c r="C62">
         <v>-0.1461509421689197</v>
@@ -4692,7 +4864,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E62">
-        <v>-2.425820417578048</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4703,7 +4875,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.06843253787598655</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C63">
         <v>0.2503826218552805</v>
@@ -4712,7 +4884,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E63">
-        <v>-0.1315388120502606</v>
+        <v>0.06843253787598655</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -4723,7 +4895,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1891958400100801</v>
+        <v>-1.96696409647249</v>
       </c>
       <c r="C64">
         <v>0.1370873178483661</v>
@@ -4732,7 +4904,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E64">
-        <v>-1.96696409647249</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4743,7 +4915,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.3099591421441736</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C65">
         <v>0.5336208818725664</v>
@@ -4752,7 +4924,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E65">
-        <v>-0.3609669726030396</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4763,7 +4935,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2938573685262962</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C66">
         <v>-0.08950329016546253</v>
@@ -4772,7 +4944,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E66">
-        <v>-0.3609669726030396</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4783,7 +4955,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.034538954948738</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C67">
         <v>0.3636779258621949</v>
@@ -4792,7 +4964,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E67">
-        <v>0.09788934850251833</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4803,7 +4975,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.2938573685262962</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C68">
         <v>0.4203255778656519</v>
@@ -4812,7 +4984,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E68">
-        <v>-0.1315388120502606</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4823,7 +4995,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.05233076425810806</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C69">
         <v>0.1937349698518231</v>
@@ -4832,7 +5004,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E69">
-        <v>-0.8198232937085964</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4843,7 +5015,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4307224442782682</v>
+        <v>-1.96696409647249</v>
       </c>
       <c r="C70">
         <v>0.4203255778656519</v>
@@ -4852,7 +5024,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E70">
-        <v>-1.96696409647249</v>
+        <v>0.4307224442782682</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4863,7 +5035,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2938573685262962</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C71">
         <v>0.08043966584490887</v>
@@ -4872,7 +5044,7 @@
         <v>-0.130318058760884</v>
       </c>
       <c r="E71">
-        <v>-1.278679614814154</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4883,7 +5055,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.06843253787598655</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C72">
         <v>0.5902685338760233</v>
@@ -4892,7 +5064,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E72">
-        <v>0.3273175090552973</v>
+        <v>0.06843253787598655</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4903,7 +5075,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.3099591421441736</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C73">
         <v>0.1370873178483661</v>
@@ -4912,7 +5084,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E73">
-        <v>-0.5903951331558185</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4923,7 +5095,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5514857464123618</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C74">
         <v>0.6469161858794809</v>
@@ -4932,7 +5104,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E74">
-        <v>-1.278679614814154</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -4943,7 +5115,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.3099591421441736</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C75">
         <v>0.5336208818725664</v>
@@ -4952,7 +5124,7 @@
         <v>0.0008746178440320962</v>
       </c>
       <c r="E75">
-        <v>-0.5903951331558185</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4963,7 +5135,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6722490485464564</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C76">
         <v>0.3070302738587375</v>
@@ -4972,7 +5144,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E76">
-        <v>-0.3609669726030396</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4983,7 +5155,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9137756528146435</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C77">
         <v>0.3636779258621949</v>
@@ -4992,7 +5164,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E77">
-        <v>-0.1315388120502606</v>
+        <v>0.9137756528146435</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -5003,7 +5175,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.155302257082832</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C78">
         <v>0.5902685338760233</v>
@@ -5012,7 +5184,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E78">
-        <v>-0.5903951331558185</v>
+        <v>1.155302257082832</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -5023,7 +5195,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.034538954948738</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C79">
         <v>0.7035638378829377</v>
@@ -5032,7 +5204,7 @@
         <v>0.6568380008686138</v>
       </c>
       <c r="E79">
-        <v>-0.1315388120502606</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -5043,7 +5215,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1891958400100801</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C80">
         <v>0.4203255778656519</v>
@@ -5052,7 +5224,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E80">
-        <v>-0.3609669726030396</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -5063,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1730940663922016</v>
+        <v>-1.049251454261375</v>
       </c>
       <c r="C81">
         <v>-0.1461509421689197</v>
@@ -5072,7 +5244,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E81">
-        <v>-1.049251454261375</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -5083,7 +5255,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4146206706603898</v>
+        <v>-1.508107775366933</v>
       </c>
       <c r="C82">
         <v>0.02379201384145166</v>
@@ -5092,7 +5264,7 @@
         <v>-0.130318058760884</v>
       </c>
       <c r="E82">
-        <v>-1.508107775366933</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -5103,7 +5275,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.4146206706603898</v>
+        <v>-1.508107775366933</v>
       </c>
       <c r="C83">
         <v>-0.03285563816200531</v>
@@ -5112,7 +5284,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E83">
-        <v>-1.508107775366933</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -5123,7 +5295,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.05233076425810806</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C84">
         <v>0.08043966584490887</v>
@@ -5132,7 +5304,7 @@
         <v>0.0008746178440320962</v>
       </c>
       <c r="E84">
-        <v>-0.8198232937085964</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -5143,7 +5315,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1891958400100801</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C85">
         <v>0.7602114898863948</v>
@@ -5152,7 +5324,7 @@
         <v>0.5256453242636974</v>
       </c>
       <c r="E85">
-        <v>-0.8198232937085964</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -5163,7 +5335,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5353839727944832</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C86">
         <v>0.4203255778656519</v>
@@ -5172,7 +5344,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E86">
-        <v>-0.1315388120502606</v>
+        <v>-0.5353839727944832</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -5183,7 +5355,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1891958400100801</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C87">
         <v>0.4203255778656519</v>
@@ -5192,7 +5364,7 @@
         <v>0.5256453242636974</v>
       </c>
       <c r="E87">
-        <v>0.7861738301608542</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -5203,7 +5375,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.034538954948738</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C88">
         <v>0.5336208818725664</v>
@@ -5212,7 +5384,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E88">
-        <v>0.09788934850251833</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -5223,7 +5395,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5514857464123618</v>
+        <v>-1.737535935919712</v>
       </c>
       <c r="C89">
         <v>0.3636779258621949</v>
@@ -5232,7 +5404,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E89">
-        <v>-1.737535935919712</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -5243,7 +5415,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2938573685262962</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C90">
         <v>0.1937349698518231</v>
@@ -5252,7 +5424,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E90">
-        <v>-0.1315388120502606</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -5263,7 +5435,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4146206706603898</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C91">
         <v>0.1370873178483661</v>
@@ -5272,7 +5444,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E91">
-        <v>-1.278679614814154</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5283,7 +5455,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.4146206706603898</v>
+        <v>-1.049251454261375</v>
       </c>
       <c r="C92">
         <v>0.3636779258621949</v>
@@ -5292,7 +5464,7 @@
         <v>0.0008746178440320962</v>
       </c>
       <c r="E92">
-        <v>-1.049251454261375</v>
+        <v>-0.4146206706603898</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -5303,7 +5475,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.3099591421441736</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C93">
         <v>0.4769732298691089</v>
@@ -5312,7 +5484,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E93">
-        <v>-0.1315388120502606</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5323,7 +5495,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.05233076425810806</v>
+        <v>-1.049251454261375</v>
       </c>
       <c r="C94">
         <v>0.1370873178483661</v>
@@ -5332,7 +5504,7 @@
         <v>0.0008746178440320962</v>
       </c>
       <c r="E94">
-        <v>-1.049251454261375</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5343,7 +5515,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.01843718133086</v>
+        <v>-1.737535935919712</v>
       </c>
       <c r="C95">
         <v>-0.2594462461758342</v>
@@ -5352,7 +5524,7 @@
         <v>-0.2615107353658004</v>
       </c>
       <c r="E95">
-        <v>-1.737535935919712</v>
+        <v>-1.01843718133086</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5363,7 +5535,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.2938573685262962</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C96">
         <v>0.2503826218552805</v>
@@ -5372,7 +5544,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E96">
-        <v>-0.8198232937085964</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5383,7 +5555,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1730940663922016</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C97">
         <v>0.2503826218552805</v>
@@ -5392,7 +5564,7 @@
         <v>0.0008746178440320962</v>
       </c>
       <c r="E97">
-        <v>-0.1315388120502606</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5403,7 +5575,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1730940663922016</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C98">
         <v>0.2503826218552805</v>
@@ -5412,7 +5584,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E98">
-        <v>-0.3609669726030396</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -5423,7 +5595,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4307224442782682</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C99">
         <v>0.3070302738587375</v>
@@ -5432,7 +5604,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E99">
-        <v>-0.3609669726030396</v>
+        <v>0.4307224442782682</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5443,7 +5615,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8976738791967661</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C100">
         <v>-0.4293892021862056</v>
@@ -5452,7 +5624,7 @@
         <v>-0.130318058760884</v>
       </c>
       <c r="E100">
-        <v>-1.278679614814154</v>
+        <v>-0.8976738791967661</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -5463,7 +5635,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1730940663922016</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C101">
         <v>0.1937349698518231</v>
@@ -5472,7 +5644,7 @@
         <v>0.1320672944489485</v>
       </c>
       <c r="E101">
-        <v>-0.5903951331558185</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -5483,7 +5655,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5514857464123618</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C102">
         <v>1.270040357917509</v>
@@ -5492,7 +5664,7 @@
         <v>1.706379413707944</v>
       </c>
       <c r="E102">
-        <v>0.5567456696080751</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F102">
         <v>-1.22065556157337</v>
@@ -5503,7 +5675,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.05233076425810806</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C103">
         <v>0.7602114898863948</v>
@@ -5512,7 +5684,7 @@
         <v>0.919223354078446</v>
       </c>
       <c r="E103">
-        <v>-0.8198232937085964</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F103">
         <v>-1.22065556157337</v>
@@ -5523,7 +5695,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.517592163485113</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C104">
         <v>1.213392705914053</v>
@@ -5532,7 +5704,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E104">
-        <v>-0.1315388120502606</v>
+        <v>1.517592163485113</v>
       </c>
       <c r="F104">
         <v>-1.22065556157337</v>
@@ -5543,7 +5715,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5514857464123618</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C105">
         <v>1.043449749903681</v>
@@ -5552,7 +5724,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E105">
-        <v>-0.3609669726030396</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F105">
         <v>-1.22065556157337</v>
@@ -5563,7 +5735,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.79301235068055</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C106">
         <v>1.156745053910595</v>
@@ -5572,7 +5744,7 @@
         <v>1.312801383893195</v>
       </c>
       <c r="E106">
-        <v>-0.1315388120502606</v>
+        <v>0.79301235068055</v>
       </c>
       <c r="F106">
         <v>-1.22065556157337</v>
@@ -5583,7 +5755,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.121408674155583</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C107">
         <v>1.609926269938252</v>
@@ -5592,7 +5764,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E107">
-        <v>-0.1315388120502606</v>
+        <v>2.121408674155583</v>
       </c>
       <c r="F107">
         <v>-1.22065556157337</v>
@@ -5603,7 +5775,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.139200483464953</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C108">
         <v>0.4203255778656519</v>
@@ -5612,7 +5784,7 @@
         <v>0.6568380008686138</v>
       </c>
       <c r="E108">
-        <v>-1.278679614814154</v>
+        <v>-1.139200483464953</v>
       </c>
       <c r="F108">
         <v>-1.22065556157337</v>
@@ -5623,7 +5795,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.759118767753302</v>
+        <v>-0.3609669726030396</v>
       </c>
       <c r="C109">
         <v>1.439983313927881</v>
@@ -5632,7 +5804,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E109">
-        <v>-0.3609669726030396</v>
+        <v>1.759118767753302</v>
       </c>
       <c r="F109">
         <v>-1.22065556157337</v>
@@ -5643,7 +5815,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.034538954948738</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C110">
         <v>1.156745053910595</v>
@@ -5652,7 +5824,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E110">
-        <v>-1.278679614814154</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F110">
         <v>-1.22065556157337</v>
@@ -5663,7 +5835,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.638355465619208</v>
+        <v>1.245030151266412</v>
       </c>
       <c r="C111">
         <v>1.326688009920966</v>
@@ -5672,7 +5844,7 @@
         <v>1.706379413707944</v>
       </c>
       <c r="E111">
-        <v>1.245030151266412</v>
+        <v>1.638355465619208</v>
       </c>
       <c r="F111">
         <v>-1.22065556157337</v>
@@ -5683,7 +5855,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.79301235068055</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C112">
         <v>0.7602114898863948</v>
@@ -5692,7 +5864,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E112">
-        <v>0.3273175090552973</v>
+        <v>0.79301235068055</v>
       </c>
       <c r="F112">
         <v>-1.22065556157337</v>
@@ -5703,7 +5875,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6722490485464564</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C113">
         <v>0.8735067938933092</v>
@@ -5712,7 +5884,7 @@
         <v>0.919223354078446</v>
       </c>
       <c r="E113">
-        <v>-0.8198232937085964</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F113">
         <v>-1.22065556157337</v>
@@ -5723,7 +5895,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.155302257082832</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C114">
         <v>0.9868020979002236</v>
@@ -5732,7 +5904,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E114">
-        <v>-0.1315388120502606</v>
+        <v>1.155302257082832</v>
       </c>
       <c r="F114">
         <v>-1.22065556157337</v>
@@ -5743,7 +5915,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.1730940663922016</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C115">
         <v>0.7035638378829377</v>
@@ -5752,7 +5924,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E115">
-        <v>-1.278679614814154</v>
+        <v>-0.1730940663922016</v>
       </c>
       <c r="F115">
         <v>-1.22065556157337</v>
@@ -5763,7 +5935,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.05233076425810806</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C116">
         <v>0.7602114898863948</v>
@@ -5772,7 +5944,7 @@
         <v>1.575186737103027</v>
       </c>
       <c r="E116">
-        <v>-0.5903951331558185</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F116">
         <v>-1.22065556157337</v>
@@ -5783,7 +5955,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6722490485464564</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C117">
         <v>0.8735067938933092</v>
@@ -5792,7 +5964,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E117">
-        <v>0.3273175090552973</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F117">
         <v>-1.22065556157337</v>
@@ -5803,7 +5975,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.79301235068055</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C118">
         <v>0.9868020979002236</v>
@@ -5812,7 +5984,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E118">
-        <v>-0.1315388120502606</v>
+        <v>0.79301235068055</v>
       </c>
       <c r="F118">
         <v>-1.22065556157337</v>
@@ -5823,7 +5995,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.242171976289678</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C119">
         <v>1.66657392194171</v>
@@ -5832,7 +6004,7 @@
         <v>1.312801383893195</v>
       </c>
       <c r="E119">
-        <v>1.703886472371969</v>
+        <v>2.242171976289678</v>
       </c>
       <c r="F119">
         <v>-1.22065556157337</v>
@@ -5843,7 +6015,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.242171976289678</v>
+        <v>-1.049251454261375</v>
       </c>
       <c r="C120">
         <v>1.779869225948624</v>
@@ -5852,7 +6024,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E120">
-        <v>-1.049251454261375</v>
+        <v>2.242171976289678</v>
       </c>
       <c r="F120">
         <v>-1.22065556157337</v>
@@ -5863,7 +6035,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.1891958400100801</v>
+        <v>-1.96696409647249</v>
       </c>
       <c r="C121">
         <v>0.7035638378829377</v>
@@ -5872,7 +6044,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E121">
-        <v>-1.96696409647249</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F121">
         <v>-1.22065556157337</v>
@@ -5883,7 +6055,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.276065559216926</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C122">
         <v>1.100097401907138</v>
@@ -5892,7 +6064,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E122">
-        <v>0.3273175090552973</v>
+        <v>1.276065559216926</v>
       </c>
       <c r="F122">
         <v>-1.22065556157337</v>
@@ -5903,7 +6075,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.2938573685262962</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C123">
         <v>0.6469161858794809</v>
@@ -5912,7 +6084,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E123">
-        <v>-0.5903951331558185</v>
+        <v>-0.2938573685262962</v>
       </c>
       <c r="F123">
         <v>-1.22065556157337</v>
@@ -5923,7 +6095,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.242171976289678</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C124">
         <v>1.66657392194171</v>
@@ -5932,7 +6104,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E124">
-        <v>-0.5903951331558185</v>
+        <v>2.242171976289678</v>
       </c>
       <c r="F124">
         <v>-1.22065556157337</v>
@@ -5943,7 +6115,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5514857464123618</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C125">
         <v>0.6469161858794809</v>
@@ -5952,7 +6124,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E125">
-        <v>-0.8198232937085964</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F125">
         <v>-1.22065556157337</v>
@@ -5963,7 +6135,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.034538954948738</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C126">
         <v>1.100097401907138</v>
@@ -5972,7 +6144,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E126">
-        <v>0.5567456696080751</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F126">
         <v>-1.22065556157337</v>
@@ -5983,7 +6155,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.638355465619208</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C127">
         <v>1.270040357917509</v>
@@ -5992,7 +6164,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E127">
-        <v>0.3273175090552973</v>
+        <v>1.638355465619208</v>
       </c>
       <c r="F127">
         <v>-1.22065556157337</v>
@@ -6003,7 +6175,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4307224442782682</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C128">
         <v>0.5902685338760233</v>
@@ -6012,7 +6184,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E128">
-        <v>-0.5903951331558185</v>
+        <v>0.4307224442782682</v>
       </c>
       <c r="F128">
         <v>-1.22065556157337</v>
@@ -6023,7 +6195,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.3099591421441736</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C129">
         <v>0.6469161858794809</v>
@@ -6032,7 +6204,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E129">
-        <v>-0.1315388120502606</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F129">
         <v>-1.22065556157337</v>
@@ -6043,7 +6215,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6722490485464564</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C130">
         <v>1.043449749903681</v>
@@ -6052,7 +6224,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E130">
-        <v>-0.5903951331558185</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F130">
         <v>-1.22065556157337</v>
@@ -6063,7 +6235,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.638355465619208</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C131">
         <v>1.156745053910595</v>
@@ -6072,7 +6244,7 @@
         <v>0.5256453242636974</v>
       </c>
       <c r="E131">
-        <v>-0.1315388120502606</v>
+        <v>1.638355465619208</v>
       </c>
       <c r="F131">
         <v>-1.22065556157337</v>
@@ -6083,7 +6255,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.879882069887396</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C132">
         <v>1.326688009920966</v>
@@ -6092,7 +6264,7 @@
         <v>0.919223354078446</v>
       </c>
       <c r="E132">
-        <v>-0.5903951331558185</v>
+        <v>1.879882069887396</v>
       </c>
       <c r="F132">
         <v>-1.22065556157337</v>
@@ -6103,7 +6275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.483698580557866</v>
+        <v>1.703886472371969</v>
       </c>
       <c r="C133">
         <v>1.496630965931338</v>
@@ -6112,7 +6284,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E133">
-        <v>1.703886472371969</v>
+        <v>2.483698580557866</v>
       </c>
       <c r="F133">
         <v>-1.22065556157337</v>
@@ -6123,7 +6295,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6722490485464564</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C134">
         <v>1.043449749903681</v>
@@ -6132,7 +6304,7 @@
         <v>1.312801383893195</v>
       </c>
       <c r="E134">
-        <v>-0.5903951331558185</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F134">
         <v>-1.22065556157337</v>
@@ -6143,7 +6315,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5514857464123618</v>
+        <v>-0.5903951331558185</v>
       </c>
       <c r="C135">
         <v>0.7602114898863948</v>
@@ -6152,7 +6324,7 @@
         <v>0.394452647658781</v>
       </c>
       <c r="E135">
-        <v>-0.5903951331558185</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F135">
         <v>-1.22065556157337</v>
@@ -6163,7 +6335,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.3099591421441736</v>
+        <v>-1.049251454261375</v>
       </c>
       <c r="C136">
         <v>1.043449749903681</v>
@@ -6172,7 +6344,7 @@
         <v>0.2632599710538646</v>
       </c>
       <c r="E136">
-        <v>-1.049251454261375</v>
+        <v>0.3099591421441736</v>
       </c>
       <c r="F136">
         <v>-1.22065556157337</v>
@@ -6183,7 +6355,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.242171976289678</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C137">
         <v>1.326688009920966</v>
@@ -6192,7 +6364,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E137">
-        <v>-0.1315388120502606</v>
+        <v>2.242171976289678</v>
       </c>
       <c r="F137">
         <v>-1.22065556157337</v>
@@ -6203,7 +6375,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.5514857464123618</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C138">
         <v>1.043449749903681</v>
@@ -6212,7 +6384,7 @@
         <v>1.575186737103027</v>
       </c>
       <c r="E138">
-        <v>0.7861738301608542</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F138">
         <v>-1.22065556157337</v>
@@ -6223,7 +6395,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6722490485464564</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C139">
         <v>0.9868020979002236</v>
@@ -6232,7 +6404,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E139">
-        <v>0.09788934850251833</v>
+        <v>0.6722490485464564</v>
       </c>
       <c r="F139">
         <v>-1.22065556157337</v>
@@ -6243,7 +6415,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1891958400100801</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C140">
         <v>0.5902685338760233</v>
@@ -6252,7 +6424,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E140">
-        <v>-0.1315388120502606</v>
+        <v>0.1891958400100801</v>
       </c>
       <c r="F140">
         <v>-1.22065556157337</v>
@@ -6263,7 +6435,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.276065559216926</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C141">
         <v>0.9301544458967667</v>
@@ -6272,7 +6444,7 @@
         <v>1.181608707288279</v>
       </c>
       <c r="E141">
-        <v>0.09788934850251833</v>
+        <v>1.276065559216926</v>
       </c>
       <c r="F141">
         <v>-1.22065556157337</v>
@@ -6283,7 +6455,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.034538954948738</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C142">
         <v>1.043449749903681</v>
@@ -6292,7 +6464,7 @@
         <v>1.575186737103027</v>
       </c>
       <c r="E142">
-        <v>0.09788934850251833</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F142">
         <v>-1.22065556157337</v>
@@ -6303,7 +6475,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.276065559216926</v>
+        <v>0.09788934850251833</v>
       </c>
       <c r="C143">
         <v>0.7602114898863948</v>
@@ -6312,7 +6484,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E143">
-        <v>0.09788934850251833</v>
+        <v>1.276065559216926</v>
       </c>
       <c r="F143">
         <v>-1.22065556157337</v>
@@ -6323,7 +6495,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.05233076425810806</v>
+        <v>-0.8198232937085964</v>
       </c>
       <c r="C144">
         <v>0.7602114898863948</v>
@@ -6332,7 +6504,7 @@
         <v>0.919223354078446</v>
       </c>
       <c r="E144">
-        <v>-0.8198232937085964</v>
+        <v>-0.05233076425810806</v>
       </c>
       <c r="F144">
         <v>-1.22065556157337</v>
@@ -6343,7 +6515,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.155302257082832</v>
+        <v>0.3273175090552973</v>
       </c>
       <c r="C145">
         <v>1.213392705914053</v>
@@ -6352,7 +6524,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E145">
-        <v>0.3273175090552973</v>
+        <v>1.155302257082832</v>
       </c>
       <c r="F145">
         <v>-1.22065556157337</v>
@@ -6363,7 +6535,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.034538954948738</v>
+        <v>0.5567456696080751</v>
       </c>
       <c r="C146">
         <v>1.100097401907138</v>
@@ -6372,7 +6544,7 @@
         <v>1.706379413707944</v>
       </c>
       <c r="E146">
-        <v>0.5567456696080751</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F146">
         <v>-1.22065556157337</v>
@@ -6383,7 +6555,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.034538954948738</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C147">
         <v>0.8168591418898522</v>
@@ -6392,7 +6564,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E147">
-        <v>-0.1315388120502606</v>
+        <v>1.034538954948738</v>
       </c>
       <c r="F147">
         <v>-1.22065556157337</v>
@@ -6403,7 +6575,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5514857464123618</v>
+        <v>-1.278679614814154</v>
       </c>
       <c r="C148">
         <v>0.7035638378829377</v>
@@ -6412,7 +6584,7 @@
         <v>0.919223354078446</v>
       </c>
       <c r="E148">
-        <v>-1.278679614814154</v>
+        <v>0.5514857464123618</v>
       </c>
       <c r="F148">
         <v>-1.22065556157337</v>
@@ -6423,7 +6595,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.79301235068055</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C149">
         <v>0.8168591418898522</v>
@@ -6432,7 +6604,7 @@
         <v>1.050416030683362</v>
       </c>
       <c r="E149">
-        <v>-0.1315388120502606</v>
+        <v>0.79301235068055</v>
       </c>
       <c r="F149">
         <v>-1.22065556157337</v>
@@ -6443,7 +6615,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4307224442782682</v>
+        <v>0.7861738301608542</v>
       </c>
       <c r="C150">
         <v>0.9301544458967667</v>
@@ -6452,7 +6624,7 @@
         <v>1.443994060498111</v>
       </c>
       <c r="E150">
-        <v>0.7861738301608542</v>
+        <v>0.4307224442782682</v>
       </c>
       <c r="F150">
         <v>-1.22065556157337</v>
@@ -6463,7 +6635,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.06843253787598655</v>
+        <v>-0.1315388120502606</v>
       </c>
       <c r="C151">
         <v>0.7602114898863948</v>
@@ -6472,7 +6644,7 @@
         <v>0.7880306774735298</v>
       </c>
       <c r="E151">
-        <v>-0.1315388120502606</v>
+        <v>0.06843253787598655</v>
       </c>
       <c r="F151">
         <v>-1.22065556157337</v>
@@ -6513,13 +6685,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8717537758865838</v>
+        <v>-0.4284401043305386</v>
       </c>
       <c r="D2">
-        <v>0.8179411262715758</v>
+        <v>-0.3661259325364377</v>
       </c>
       <c r="E2">
-        <v>-0.1175697841330009</v>
+        <v>-0.117569784133001</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6527,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8717537758865838</v>
+        <v>-0.4284401043305386</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6536,7 +6708,7 @@
         <v>0.962865431402796</v>
       </c>
       <c r="E3">
-        <v>-0.4284401043305386</v>
+        <v>0.8717537758865835</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6544,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8179411262715758</v>
+        <v>-0.3661259325364377</v>
       </c>
       <c r="C4">
         <v>0.962865431402796</v>
@@ -6553,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.3661259325364377</v>
+        <v>0.8179411262715758</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6561,13 +6733,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.1175697841330009</v>
+        <v>-0.117569784133001</v>
       </c>
       <c r="C5">
-        <v>-0.4284401043305386</v>
+        <v>0.8717537758865835</v>
       </c>
       <c r="D5">
-        <v>-0.3661259325364377</v>
+        <v>0.8179411262715758</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6614,19 +6786,19 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D2">
         <v>0.9230769230769231</v>
-      </c>
-      <c r="D2">
-        <v>0.8125</v>
       </c>
       <c r="E2">
         <v>0.8947368421052632</v>
       </c>
       <c r="F2">
-        <v>0.9118589743589745</v>
+        <v>0.9029304029304029</v>
       </c>
       <c r="G2">
-        <v>0.9005566801619433</v>
+        <v>0.9019664545980336</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6637,16 +6809,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>0.9285714285714286</v>
       </c>
       <c r="E3">
         <v>0.8947368421052632</v>
       </c>
       <c r="F3">
-        <v>0.9095238095238095</v>
+        <v>0.9055555555555556</v>
       </c>
       <c r="G3">
         <v>0.8947368421052632</v>
@@ -6660,19 +6832,19 @@
         <v>1</v>
       </c>
       <c r="C4">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D4">
         <v>0.8571428571428571</v>
-      </c>
-      <c r="D4">
-        <v>0.8666666666666666</v>
       </c>
       <c r="E4">
         <v>0.8947368421052632</v>
       </c>
       <c r="F4">
-        <v>0.9079365079365079</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="G4">
-        <v>0.894486215538847</v>
+        <v>0.8950260266049739</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6680,13 +6852,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
       </c>
       <c r="E5">
         <v>0.8947368421052632</v>
@@ -6700,6 +6872,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6739,19 +6912,19 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
         <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.8235294117647058</v>
       </c>
       <c r="E2">
         <v>0.9210526315789473</v>
       </c>
       <c r="F2">
-        <v>0.9411764705882352</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G2">
-        <v>0.934984520123839</v>
+        <v>0.9368421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6762,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>0.9210526315789473</v>
@@ -6788,16 +6961,16 @@
         <v>0.888888888888889</v>
       </c>
       <c r="D4">
-        <v>0.9032258064516129</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E4">
         <v>0.9210526315789473</v>
       </c>
       <c r="F4">
-        <v>0.9307048984468339</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G4">
-        <v>0.9204867006225242</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6805,13 +6978,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>15</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
       </c>
       <c r="E5">
         <v>0.9210526315789473</v>
@@ -6825,6 +6998,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6864,19 +7038,19 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.875</v>
-      </c>
       <c r="E2">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F2">
-        <v>0.9583333333333334</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G2">
-        <v>0.9539473684210527</v>
+        <v>0.9368421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6887,19 +7061,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F3">
-        <v>0.9555555555555556</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="G3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6910,19 +7084,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9285714285714286</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="D4">
-        <v>0.9333333333333333</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E4">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F4">
-        <v>0.953968253968254</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="G4">
-        <v>0.9472431077694236</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6930,16 +7104,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -6950,6 +7124,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6989,19 +7164,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D2">
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F2">
-        <v>0.9583333333333334</v>
+        <v>0.9249084249084248</v>
       </c>
       <c r="G2">
-        <v>0.9539473684210527</v>
+        <v>0.9232215153267785</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7012,19 +7187,19 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D3">
         <v>0.8666666666666667</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F3">
-        <v>0.9555555555555556</v>
+        <v>0.9277777777777777</v>
       </c>
       <c r="G3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7035,19 +7210,19 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9285714285714286</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="D4">
-        <v>0.9333333333333333</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="E4">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F4">
-        <v>0.953968253968254</v>
+        <v>0.9255172413793104</v>
       </c>
       <c r="G4">
-        <v>0.9472431077694236</v>
+        <v>0.9212704174228674</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,16 +7230,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F5">
         <v>38</v>
@@ -7075,5 +7250,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>